--- a/CodeBook_9_01_2020.xlsx
+++ b/CodeBook_9_01_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701528B-528C-4F42-8D02-0906A5D3E0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1AC52-4EC1-614E-BAFF-C8F9EBBDA9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2880" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="559">
   <si>
     <t>people/year</t>
   </si>
@@ -1440,147 +1440,6 @@
     <t>Date all mandated quarantines ended</t>
   </si>
   <si>
-    <t>0: policy not implemented; valid date range: 2/29/2020, 3/16/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 4/3/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 4/6/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/28/2020, 6/19/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/9/2020, 4/6/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/19/2020, 4/7/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/27/2020, 4/30/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/19/2020, 4/3/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/20/2020, 6/5/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/8/2020, 7/20/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/3/2020, 7/3/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 5/8/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 4/27/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/15/2020, 4/3/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/24/2020, 6/22/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/24/2020, 7/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/27/2020, 7/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 5/1/2020, 6/29/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/24/2020, 7/21/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/20/2020, 6/22/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 6/26/2020, 7/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/25/2020, 7/1/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 5/3/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/15/2020, 6/8/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/10/2020, 5/20/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/12/2020, 4/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/21/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/23/2020, 7/1/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/24/2020, 7/17/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/9/2020, 6/18/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/2/2020, 5/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 4/22/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/10/2020, 4/6/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/1/2020, 4/10/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/7/2020, 3/18/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/12/2020, 4/8/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/16/2020, 4/16/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/20/2020, 5/29/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/8/2020, 4/6/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range:3/25/2020-4/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range:3/18/2020-3/24/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 4/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 10/24/2019-3/31/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range:3/11/2020-4/6/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range:4/8/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 7/13/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 3/24/2020, 7/1/2020</t>
-  </si>
-  <si>
     <t>The date states resumeded statewide. If states never suspended elective medical/dental procedures, they will be marked as 0</t>
   </si>
   <si>
@@ -1626,15 +1485,6 @@
     <t>Whether a state suspended their non-payment lock-out policy for CHIP during the pandemic. If a state did not have an existing lock-out policy, they will be marked as 0.</t>
   </si>
   <si>
-    <t>0: No change in status/policy not implemented; valid date range: 5/1/2020, 7/28/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; valid date range: 6/26/2020, 7/28/2020</t>
-  </si>
-  <si>
-    <t>0: policy not implemented; 1/1/2020: state previously allowed audio only telehealth; valid date range: 3/13/2020, 6/22/2020</t>
-  </si>
-  <si>
     <t>Whether any legal encforcement measures of the face mask mandate are present statewide</t>
   </si>
   <si>
@@ -1822,6 +1672,90 @@
   </si>
   <si>
     <t>the date a state re-implemented freezes on telecom shut offs. Did not include guidance or recommendations. Order must apply to the entire state.</t>
+  </si>
+  <si>
+    <t>EVICSTPTWO</t>
+  </si>
+  <si>
+    <t>Second stop of evictions overall or due to COVID related issues</t>
+  </si>
+  <si>
+    <t>The second date a state stopped the initiation or enforcement of evictions (overall or due to COVID-19 related issues) statewide, when the state had a moratorium previously in place but there has been a gap in time between the effective dates of the first and subsequent moratorium. This could be mandated from governors or though the state court system. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t>0: policy not implemented; </t>
+  </si>
+  <si>
+    <t>0: policy not implemented; 1/1/2020: state previously allowed audio only telehealth;</t>
+  </si>
+  <si>
+    <t>VBMEXC</t>
+  </si>
+  <si>
+    <t>COVID-19 is not an acceptable reason to request application for mail-in ballot unless sick or exposed (as of September 1, 2020)</t>
+  </si>
+  <si>
+    <t>As of September 1, 2020 the states which required a reason other than the COVID-19 pandemic to request a mail in ballot for elections.</t>
+  </si>
+  <si>
+    <t>Vote by mail</t>
+  </si>
+  <si>
+    <t>VBMSIG</t>
+  </si>
+  <si>
+    <t>Witness or notary signature required for mail-in ballot (as of September 1, 2020)</t>
+  </si>
+  <si>
+    <t>As of September 1, 2020 the states which required a signature from a witness or notary for all mail in or absentee ballots. This information was cross-checked with 538 and Ballotpedia.</t>
+  </si>
+  <si>
+    <t>VBMPERM</t>
+  </si>
+  <si>
+    <t>Permanent mail-in ballot system</t>
+  </si>
+  <si>
+    <t>State already had VBM policies in place statewide prior to the COVID-19 emergency. This information was cross-checked with 538 and Ballotpedia.</t>
+  </si>
+  <si>
+    <t>VBMAUTOBAL</t>
+  </si>
+  <si>
+    <t>Automatic mail-in ballot system in response to COVID-19 (0,1,2 2 being conditional- see notes for details)</t>
+  </si>
+  <si>
+    <t>States automatically mail the ballot to registered voters in response to the COVID-19 pandemic. </t>
+  </si>
+  <si>
+    <t>2,1,0</t>
+  </si>
+  <si>
+    <t>2=conditional, see notes for specific details 1="YES",0="NO"</t>
+  </si>
+  <si>
+    <t>VBMAUTOAP</t>
+  </si>
+  <si>
+    <t>Automatic applications sent for mail-in ballots in response to COVID-19 (0,1,2 2 being conditional- see notes for details)</t>
+  </si>
+  <si>
+    <t>States automatically mail and application for the ballot to registered voters in response to the COVID-19 pandemic. </t>
+  </si>
+  <si>
+    <t>VBMGENELEC</t>
+  </si>
+  <si>
+    <t>Last date of receipt of mail-in ballot request for the general election (by mail or online)</t>
+  </si>
+  <si>
+    <t>Last date to request a ballot for the general election by mail or online. Walk-in ballot request dates may differ by state. </t>
+  </si>
+  <si>
+    <t>Vote_by_mail</t>
+  </si>
+  <si>
+    <t>Source: https://ballotpedia.org/All-mail_voting; https://projects.fivethirtyeight.com/how-to-vote-2020/</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2105,9 +2039,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2118,9 +2049,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2407,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B140" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -2546,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>453</v>
+        <v>534</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="19"/>
@@ -2571,7 +2499,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="19" t="s">
@@ -2598,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="19" t="s">
@@ -2613,7 +2541,7 @@
         <v>137</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2625,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="19"/>
@@ -2650,7 +2578,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="19" t="s">
@@ -2677,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="19" t="s">
@@ -2704,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>459</v>
+        <v>534</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="19" t="s">
@@ -2731,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="19" t="s">
@@ -2758,7 +2686,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="19" t="s">
@@ -2800,7 +2728,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -2812,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="19" t="s">
@@ -2881,7 +2809,7 @@
         <v>127</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -2902,13 +2830,13 @@
     </row>
     <row r="19" spans="1:9" ht="56">
       <c r="A19" s="6" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -2920,20 +2848,20 @@
         <v>4</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="70">
       <c r="A20" s="6" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>28</v>
@@ -2945,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="19"/>
@@ -2970,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="19"/>
@@ -3022,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="19"/>
@@ -3047,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="19"/>
@@ -3101,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="19"/>
@@ -3114,7 +3042,7 @@
         <v>120</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>25</v>
@@ -3126,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="19"/>
@@ -3178,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="19"/>
@@ -3191,7 +3119,7 @@
         <v>117</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
@@ -3203,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="19"/>
@@ -3228,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="19"/>
@@ -3241,7 +3169,7 @@
         <v>115</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>25</v>
@@ -3253,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="19"/>
@@ -3278,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="19"/>
@@ -3291,7 +3219,7 @@
         <v>113</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>25</v>
@@ -3303,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="19"/>
@@ -3316,7 +3244,7 @@
         <v>112</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -3328,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="19"/>
@@ -3341,7 +3269,7 @@
         <v>111</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>25</v>
@@ -3353,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="19"/>
@@ -3366,7 +3294,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>25</v>
@@ -3378,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="19" t="s">
@@ -3393,7 +3321,7 @@
         <v>109</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
@@ -3405,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="19" t="s">
@@ -3420,7 +3348,7 @@
         <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3432,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="19" t="s">
@@ -3447,7 +3375,7 @@
         <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3459,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="20" t="s">
@@ -3474,7 +3402,7 @@
         <v>106</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3486,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="20" t="s">
@@ -3501,7 +3429,7 @@
         <v>298</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
@@ -3513,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="20"/>
@@ -3538,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19" t="s">
@@ -3565,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
@@ -3590,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
@@ -3615,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="19"/>
@@ -3640,73 +3568,73 @@
         <v>4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:9" ht="90">
+    <row r="48" spans="1:9" ht="135">
       <c r="A48" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>538</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" ht="60">
+    <row r="49" spans="1:9" ht="90">
       <c r="A49" s="6" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="6" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>4</v>
@@ -3715,178 +3643,176 @@
         <v>12</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="45">
       <c r="A51" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>98</v>
+        <v>492</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="G51" s="8" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="60">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="60">
+      <c r="A54" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B54" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C54" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D54" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E54" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="37" t="s">
+      <c r="F54" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H54" s="33"/>
+      <c r="I54" s="36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="23" customFormat="1" ht="45">
-      <c r="A54" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="23" customFormat="1" ht="60">
-      <c r="A55" s="3" t="s">
-        <v>549</v>
+    <row r="55" spans="1:9" s="23" customFormat="1" ht="45">
+      <c r="A55" s="31" t="s">
+        <v>495</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="23" customFormat="1" ht="45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A56" s="3" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="3" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A57" s="3" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>22</v>
@@ -3898,76 +3824,76 @@
         <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" ht="60">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A58" s="3" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="3" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A59" s="3" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" ht="45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A60" s="3" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>22</v>
@@ -3979,76 +3905,76 @@
         <v>4</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H60" s="32"/>
       <c r="I60" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" ht="60">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A61" s="3" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>567</v>
+        <v>514</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>568</v>
+        <v>515</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="3" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A62" s="3" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>571</v>
+        <v>518</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="23" customFormat="1" ht="45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A63" s="3" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>22</v>
@@ -4060,128 +3986,128 @@
         <v>4</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" ht="60">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A64" s="3" t="s">
-        <v>575</v>
+        <v>522</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>576</v>
+        <v>523</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="3" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A65" s="3" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="45">
-      <c r="A66" s="38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="23" customFormat="1" ht="60">
+      <c r="A66" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="45">
+      <c r="A67" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B67" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C67" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D67" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E67" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="42"/>
-    </row>
-    <row r="67" spans="1:9" ht="60">
-      <c r="A67" s="6" t="s">
+      <c r="F67" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" ht="60">
+      <c r="A68" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="90">
-      <c r="A68" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>21</v>
@@ -4193,22 +4119,22 @@
         <v>4</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="60">
+    <row r="69" spans="1:9" ht="90">
       <c r="A69" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
@@ -4220,78 +4146,78 @@
         <v>4</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="90">
+      <c r="I69" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="60">
       <c r="A70" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>333</v>
+        <v>95</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="90">
+      <c r="A71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I71" s="19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45">
-      <c r="A71" s="6" t="s">
+    <row r="72" spans="1:9" ht="45">
+      <c r="A72" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30">
-      <c r="A72" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>17</v>
@@ -4303,74 +4229,76 @@
         <v>4</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="19" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>420</v>
+        <v>92</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="45">
+        <v>4</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>513</v>
+        <v>91</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="45">
       <c r="A75" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>17</v>
@@ -4382,49 +4310,45 @@
         <v>4</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" ht="90">
+    <row r="76" spans="1:9" ht="45">
       <c r="A76" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>336</v>
+        <v>89</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="60">
+        <v>4</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" ht="90">
       <c r="A77" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>514</v>
+        <v>336</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
@@ -4442,26 +4366,26 @@
         <v>292</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30">
-      <c r="A78" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="60">
+      <c r="A78" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -4470,17 +4394,19 @@
       <c r="H78" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I78" s="19"/>
+      <c r="I78" s="19" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>85</v>
+        <v>198</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>20</v>
@@ -4501,13 +4427,13 @@
     </row>
     <row r="80" spans="1:9" ht="30">
       <c r="A80" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>20</v>
@@ -4528,13 +4454,13 @@
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>20</v>
@@ -4555,13 +4481,13 @@
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>20</v>
@@ -4582,13 +4508,13 @@
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>20</v>
@@ -4609,13 +4535,13 @@
     </row>
     <row r="84" spans="1:9" ht="30">
       <c r="A84" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>20</v>
@@ -4636,13 +4562,13 @@
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>20</v>
@@ -4663,13 +4589,13 @@
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>20</v>
@@ -4690,13 +4616,13 @@
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>20</v>
@@ -4717,13 +4643,13 @@
     </row>
     <row r="88" spans="1:9" ht="30">
       <c r="A88" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>20</v>
@@ -4744,13 +4670,13 @@
     </row>
     <row r="89" spans="1:9" ht="30">
       <c r="A89" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>20</v>
@@ -4771,13 +4697,13 @@
     </row>
     <row r="90" spans="1:9" ht="30">
       <c r="A90" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>20</v>
@@ -4798,13 +4724,13 @@
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>20</v>
@@ -4825,13 +4751,13 @@
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>20</v>
@@ -4852,13 +4778,13 @@
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>20</v>
@@ -4879,13 +4805,13 @@
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>20</v>
@@ -4906,13 +4832,13 @@
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>20</v>
@@ -4933,13 +4859,13 @@
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>20</v>
@@ -4960,13 +4886,13 @@
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>20</v>
@@ -4986,14 +4912,14 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" ht="30">
-      <c r="A98" s="27" t="s">
-        <v>440</v>
+      <c r="A98" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>448</v>
+        <v>67</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>20</v>
@@ -5014,13 +4940,13 @@
     </row>
     <row r="99" spans="1:9" ht="30">
       <c r="A99" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>20</v>
@@ -5041,13 +4967,13 @@
     </row>
     <row r="100" spans="1:9" ht="30">
       <c r="A100" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>20</v>
@@ -5068,13 +4994,13 @@
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>20</v>
@@ -5095,13 +5021,13 @@
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>449</v>
+        <v>438</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>445</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>20</v>
@@ -5120,40 +5046,42 @@
       </c>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:9" ht="45">
-      <c r="A103" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="H103" s="6"/>
+    <row r="103" spans="1:9" ht="30">
+      <c r="A103" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" ht="45">
       <c r="A104" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>65</v>
+        <v>178</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>19</v>
@@ -5165,49 +5093,45 @@
         <v>4</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:9" ht="75">
+    <row r="105" spans="1:9" ht="45">
       <c r="A105" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>422</v>
+        <v>65</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>358</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>276</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="75">
       <c r="A106" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>19</v>
@@ -5225,18 +5149,18 @@
         <v>292</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="75">
       <c r="A107" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>19</v>
@@ -5259,13 +5183,13 @@
     </row>
     <row r="108" spans="1:9" ht="75">
       <c r="A108" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>19</v>
@@ -5286,146 +5210,148 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="75">
       <c r="A109" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>426</v>
+        <v>173</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="45">
       <c r="A110" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>359</v>
+        <v>172</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:9" ht="75">
+    <row r="111" spans="1:9" ht="45">
       <c r="A111" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" ht="75">
+      <c r="A112" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" ht="60">
-      <c r="A112" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="19" t="s">
-        <v>278</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="60">
       <c r="A113" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>428</v>
+        <v>58</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I113" s="20"/>
-    </row>
-    <row r="114" spans="1:9" ht="75">
+        <v>4</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H113" s="6"/>
+      <c r="I113" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="60">
       <c r="A114" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>18</v>
@@ -5442,19 +5368,17 @@
       <c r="H114" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I114" s="20" t="s">
-        <v>279</v>
-      </c>
+      <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" ht="75">
       <c r="A115" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>18</v>
@@ -5477,13 +5401,13 @@
     </row>
     <row r="116" spans="1:9" ht="75">
       <c r="A116" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>18</v>
@@ -5504,15 +5428,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="60">
+    <row r="117" spans="1:9" ht="75">
       <c r="A117" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>18</v>
@@ -5533,15 +5457,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="60">
       <c r="A118" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>18</v>
@@ -5558,44 +5482,46 @@
       <c r="H118" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" ht="45">
+      <c r="I118" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="20" t="s">
-        <v>280</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="45">
       <c r="A120" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>363</v>
+        <v>51</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>18</v>
@@ -5607,19 +5533,22 @@
         <v>7</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:9" ht="60">
+      <c r="I120" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>18</v>
@@ -5628,26 +5557,25 @@
         <v>8</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H121" s="6"/>
-      <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="60">
       <c r="A122" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>8</v>
@@ -5656,49 +5584,47 @@
         <v>6</v>
       </c>
       <c r="G122" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H122" s="6"/>
+      <c r="I122" s="19"/>
+    </row>
+    <row r="123" spans="1:9" ht="60">
+      <c r="A123" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="25" t="s">
+      <c r="H123" s="6"/>
+      <c r="I123" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="45">
-      <c r="A123" s="6" t="s">
+    <row r="124" spans="1:9" ht="45">
+      <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B124" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="1:9" ht="30">
-      <c r="A124" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>16</v>
@@ -5710,20 +5636,22 @@
         <v>4</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H124" s="6"/>
+        <v>534</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>16</v>
@@ -5735,20 +5663,20 @@
         <v>4</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>16</v>
@@ -5760,20 +5688,20 @@
         <v>4</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="30">
       <c r="A127" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>16</v>
@@ -5785,20 +5713,20 @@
         <v>4</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="19"/>
     </row>
-    <row r="128" spans="1:9" ht="45">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>16</v>
@@ -5810,49 +5738,45 @@
         <v>4</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="19"/>
     </row>
-    <row r="129" spans="1:9" ht="60">
+    <row r="129" spans="1:9" ht="45">
       <c r="A129" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H129" s="6"/>
+      <c r="I129" s="19"/>
+    </row>
+    <row r="130" spans="1:9" ht="60">
+      <c r="A130" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B130" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I129" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30">
-      <c r="A130" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>15</v>
@@ -5870,70 +5794,72 @@
         <v>292</v>
       </c>
       <c r="I130" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="30">
+      <c r="A131" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I131" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="15">
-      <c r="A131" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>38</v>
+        <v>150</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H132" s="6"/>
-      <c r="I132" s="19" t="s">
-        <v>284</v>
-      </c>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>13</v>
@@ -5942,23 +5868,25 @@
         <v>8</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H133" s="6"/>
-      <c r="I133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" ht="75">
+      <c r="I133" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>13</v>
@@ -5966,26 +5894,24 @@
       <c r="E134" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>2</v>
+      <c r="F134" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H134" s="6"/>
-      <c r="I134" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="45">
+      <c r="I134" s="19"/>
+    </row>
+    <row r="135" spans="1:9" ht="75">
       <c r="A135" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>13</v>
@@ -5993,26 +5919,26 @@
       <c r="E135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>1</v>
+      <c r="F135" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="60">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>13</v>
@@ -6024,22 +5950,22 @@
         <v>1</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="75">
+    <row r="137" spans="1:9" ht="60">
       <c r="A137" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>35</v>
+        <v>145</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>13</v>
@@ -6051,22 +5977,22 @@
         <v>1</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="75">
       <c r="A138" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>34</v>
+        <v>144</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>13</v>
@@ -6075,25 +6001,25 @@
         <v>8</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="28" customFormat="1" ht="120">
-      <c r="A139" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>521</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="45">
+      <c r="A139" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>13</v>
@@ -6101,16 +6027,225 @@
       <c r="E139" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="23" t="s">
-        <v>524</v>
-      </c>
+      <c r="F139" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="28" customFormat="1" ht="120">
+      <c r="A140" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A141" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I141" s="23"/>
+    </row>
+    <row r="142" spans="1:9" s="28" customFormat="1" ht="60">
+      <c r="A142" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I142" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A143" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I143" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A144" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="I144" s="23"/>
+    </row>
+    <row r="145" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A145" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="I145" s="23"/>
+    </row>
+    <row r="146" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A146" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="23"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="30"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="30"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="30"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="30"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="30"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6120,10 +6255,10 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="I105" r:id="rId1" display="https://www.prisonpolicy.org/blog/2017/04/19/copays/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I106" r:id="rId2" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I107" r:id="rId3" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I108" r:id="rId4" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I106" r:id="rId1" display="https://www.prisonpolicy.org/blog/2017/04/19/copays/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I107" r:id="rId2" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I108" r:id="rId3" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I109" r:id="rId4" display="https://www.prisonpolicy.org/virus/virusresponse.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
